--- a/msff/xls/job_satisfaction_predictor{recoll.xlsx
+++ b/msff/xls/job_satisfaction_predictor{recoll.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D02C5F-FE86-439E-ACE5-5B9B0E28B283}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="615" windowWidth="15015" windowHeight="5325"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>GS</t>
   </si>
@@ -69,12 +70,6 @@
   </si>
   <si>
     <t>----- Criteria ranked</t>
-  </si>
-  <si>
-    <t>3 #renew</t>
-  </si>
-  <si>
-    <t>1 [2]</t>
   </si>
   <si>
     <t>5++</t>
@@ -123,9 +118,6 @@
     <t>2 #MOM</t>
   </si>
   <si>
-    <t>lite workload #bonus-driven</t>
-  </si>
-  <si>
     <t>3→4</t>
   </si>
   <si>
@@ -150,12 +142,6 @@
     <t>LG: realize %%potential</t>
   </si>
   <si>
-    <t>[1=see explanations in blog https://bintanvictor.wordpress.com/2018/03/21/predict-next-5y-job-satisfaction/]</t>
-  </si>
-  <si>
-    <t>[2] rated 4 by team peers but bonus was a stigma</t>
-  </si>
-  <si>
     <t>Macq</t>
   </si>
   <si>
@@ -170,9 +156,6 @@
   <si>
     <t>1) respect/appraisal by boss
 #relative2team #damaged good = 1, but never happens to contractors</t>
-  </si>
-  <si>
-    <t>1 #Sundip</t>
   </si>
   <si>
     <t>5→2</t>
@@ -191,10 +174,6 @@
   </si>
   <si>
     <t>.. LG: strategic tsn? White elephant</t>
-  </si>
-  <si>
-    <t>3→0 # bonus,
- transfer</t>
   </si>
   <si>
     <t xml:space="preserve">LG: accu? All similar rating </t>
@@ -295,40 +274,10 @@
     <t>5 #bond</t>
   </si>
   <si>
-    <t>traction, engaging[1] #NO long-term impact in retrospect!</t>
-  </si>
-  <si>
-    <t>4 [3]</t>
-  </si>
-  <si>
-    <t>[3] Rahul and Josh set the bar too high</t>
-  </si>
-  <si>
-    <t>family time 0-10#leaves,commute,WFH</t>
-  </si>
-  <si>
     <t>9 #remote</t>
   </si>
   <si>
-    <t>[4] to my surprise, leaves don't affect my satisfation</t>
-  </si>
-  <si>
-    <t>0 [4]</t>
-  </si>
-  <si>
-    <t>3 [4]</t>
-  </si>
-  <si>
     <t>MLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] perf expectation </t>
-  </si>
-  <si>
-    <t>9 [5]</t>
-  </si>
-  <si>
-    <t>2 [4,5]</t>
   </si>
   <si>
     <t>time/permisssion4blogging/xx</t>
@@ -361,9 +310,6 @@
     <t xml:space="preserve">c </t>
   </si>
   <si>
-    <t>.. cf: benefits# additional pay,med</t>
-  </si>
-  <si>
     <t>.. Team calibre #mtv;localSys..</t>
   </si>
   <si>
@@ -372,11 +318,88 @@
   <si>
     <t>a #gitBlog</t>
   </si>
+  <si>
+    <t>10 [5]</t>
+  </si>
+  <si>
+    <t>3 #low expectation</t>
+  </si>
+  <si>
+    <t>2 #detail</t>
+  </si>
+  <si>
+    <t>.. cf: benefits# additional pay,med,leave</t>
+  </si>
+  <si>
+    <t>3) lite workload #bonus-driven</t>
+  </si>
+  <si>
+    <t>4) family time 0-10
+#leaves,commute,WFH</t>
+  </si>
+  <si>
+    <t>4 [c]</t>
+  </si>
+  <si>
+    <t>0 [d]</t>
+  </si>
+  <si>
+    <t>2 [d,e]</t>
+  </si>
+  <si>
+    <t>traction, engaging[a] #NO long-term impact in retrospect!</t>
+  </si>
+  <si>
+    <t>[a=see explanations in blog https://bintanvictor.wordpress.com/2018/03/21/predict-next-5y-job-satisfaction/]</t>
+  </si>
+  <si>
+    <t>[b] rated 4 by team peers but bonus was a stigma</t>
+  </si>
+  <si>
+    <t>[c] Rahul and Josh set the bar too high</t>
+  </si>
+  <si>
+    <t>[d] to my surprise, leaves don't affect my satisfation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e] perf expectation </t>
+  </si>
+  <si>
+    <t>3 [d]</t>
+  </si>
+  <si>
+    <t>5 # peer/boss
+ rating</t>
+  </si>
+  <si>
+    <t>1 [b,f]</t>
+  </si>
+  <si>
+    <t>.. Bonus or review as hard evidence</t>
+  </si>
+  <si>
+    <t>0 #humiliation</t>
+  </si>
+  <si>
+    <t>4 #extra</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>[f] transfer offered</t>
+  </si>
+  <si>
+    <t>3→0 [f]</t>
+  </si>
+  <si>
+    <t>1 [f] #Sundip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -839,6 +862,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -874,6 +914,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1049,19 +1106,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1081,10 +1138,10 @@
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="45" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>0</v>
@@ -1093,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H1" s="46" t="s">
         <v>2</v>
@@ -1131,22 +1188,22 @@
     <row r="2" spans="1:27" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
@@ -1184,40 +1241,40 @@
     <row r="3" spans="1:27" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4">
         <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4">
         <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
@@ -1250,10 +1307,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1271,46 +1328,46 @@
     <row r="5" spans="1:27" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
-      <c r="C5" s="27">
-        <v>2</v>
+      <c r="C5" s="27" t="s">
+        <v>91</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
+      <c r="D5" s="5">
+        <v>3</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
-        <v>4</v>
+      <c r="K5" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1328,22 +1385,22 @@
     <row r="6" spans="1:27" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
-      <c r="C6" s="26">
-        <v>2</v>
+      <c r="C6" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -1355,19 +1412,19 @@
         <v>2</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L6" s="10">
         <v>5</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1385,7 +1442,7 @@
     <row r="7" spans="1:27" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C7" s="26">
         <v>2</v>
@@ -1415,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M7" s="6">
         <v>4</v>
@@ -1437,48 +1494,42 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+      <c r="C8" s="26"/>
+      <c r="D8" s="5">
+        <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
+      <c r="E8" s="5" t="s">
+        <v>111</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
+      <c r="F8" s="5" t="s">
+        <v>109</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
+      <c r="G8" s="5" t="s">
+        <v>111</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
+      <c r="H8" s="5">
+        <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
+      <c r="I8" s="5">
+        <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
+      <c r="J8" s="5" t="s">
+        <v>111</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
+      <c r="K8" s="5">
+        <v>3</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
+      <c r="L8" s="24" t="s">
+        <v>110</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>20</v>
+      <c r="M8" s="6">
+        <v>5</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1494,47 +1545,47 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="26" t="s">
-        <v>104</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>5</v>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
+      <c r="L9" s="4" t="s">
+        <v>18</v>
       </c>
-      <c r="M9" s="4">
-        <v>0</v>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1551,47 +1602,47 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>77</v>
+      <c r="E10" s="4">
+        <v>1</v>
       </c>
       <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>81</v>
+      <c r="J10" s="4">
+        <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>52</v>
+      <c r="L10" s="4">
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1608,23 +1659,47 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1641,24 +1716,44 @@
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="1" t="s">
-        <v>66</v>
+      <c r="B12" s="19" t="s">
+        <v>94</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>65</v>
+      <c r="C12" s="19">
+        <v>5</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1672,50 +1767,46 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1">
+    <row r="13" spans="1:27" ht="33">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
-      <c r="C13" s="28">
-        <v>3</v>
+      <c r="C13" s="26" t="s">
+        <v>90</v>
       </c>
-      <c r="D13" s="12">
-        <v>2</v>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>22</v>
+      <c r="E13" s="4" t="s">
+        <v>97</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>23</v>
+      <c r="F13" s="20" t="s">
+        <v>98</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
+      <c r="G13" s="4" t="s">
+        <v>105</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
+      <c r="H13" s="4">
+        <v>8</v>
       </c>
       <c r="I13" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K13" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L13" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>25</v>
+      <c r="M13" s="4">
+        <v>7</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1729,91 +1820,79 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
+    <row r="14" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="51" t="s">
+        <v>85</v>
       </c>
-      <c r="C14" s="3">
-        <v>4</v>
+      <c r="C14" s="51" t="s">
+        <v>89</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="13">
-        <v>1</v>
+      <c r="D14" s="52" t="s">
+        <v>79</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>43</v>
+      <c r="E14" s="24" t="s">
+        <v>80</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>4</v>
+      <c r="F14" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="K14" s="4">
-        <v>4</v>
+      <c r="G14" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>46</v>
+      <c r="H14" s="24" t="s">
+        <v>84</v>
       </c>
-      <c r="M14" s="4">
-        <v>1</v>
+      <c r="I14" s="24" t="s">
+        <v>78</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="J14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
-        <v>26</v>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1" t="s">
+        <v>59</v>
       </c>
-      <c r="C15" s="19">
-        <v>4</v>
+      <c r="O15" s="1" t="s">
+        <v>61</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1829,44 +1908,24 @@
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>85</v>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="1" t="s">
+        <v>59</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>92</v>
+      <c r="O16" s="1" t="s">
+        <v>58</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="4">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4">
-        <v>6</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6</v>
-      </c>
-      <c r="K16" s="4">
-        <v>7</v>
-      </c>
-      <c r="L16" s="4">
-        <v>6</v>
-      </c>
-      <c r="M16" s="4">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1880,197 +1939,199 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="24" t="s">
+    <row r="17" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>98</v>
+      <c r="C17" s="28">
+        <v>3</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>100</v>
+      <c r="D17" s="12">
+        <v>2</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-    </row>
-    <row r="18" spans="1:27" s="32" customFormat="1" ht="33">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33" t="s">
-        <v>39</v>
+      <c r="E17" s="56" t="s">
+        <v>20</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>29</v>
+      <c r="F17" s="54" t="s">
+        <v>21</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="G17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" s="32" customFormat="1" ht="33">
+      <c r="A19" s="29"/>
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
+        <v>2</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-    </row>
-    <row r="19" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="F20" s="36">
         <v>1</v>
       </c>
-      <c r="D19" s="36">
+      <c r="G20" s="36">
+        <v>1</v>
+      </c>
+      <c r="H20" s="36">
         <v>2</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="36">
-        <v>1</v>
-      </c>
-      <c r="H19" s="36">
-        <v>2</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="I20" s="36">
         <v>5</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J20" s="36">
         <v>5</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K20" s="36">
         <v>5</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L20" s="36">
         <v>3</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M20" s="36">
         <v>3</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-    </row>
-    <row r="20" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="38">
-        <v>5</v>
-      </c>
-      <c r="D20" s="39">
-        <v>5</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="40">
-        <v>3</v>
-      </c>
-      <c r="H20" s="40">
-        <v>4</v>
-      </c>
-      <c r="I20" s="40">
-        <v>5</v>
-      </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="40">
-        <v>4</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="58"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -2087,72 +2148,66 @@
       <c r="AA20" s="37"/>
     </row>
     <row r="21" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="38">
+        <v>5</v>
+      </c>
+      <c r="D21" s="39">
+        <v>5</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="40">
+        <v>3</v>
+      </c>
+      <c r="H21" s="40">
+        <v>4</v>
+      </c>
+      <c r="I21" s="40">
+        <v>5</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40">
+        <v>4</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="58"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
     </row>
     <row r="22" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="30">
-        <v>4</v>
-      </c>
-      <c r="D22" s="31">
-        <v>3</v>
-      </c>
-      <c r="E22" s="31">
-        <v>3</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="31">
-        <v>4</v>
-      </c>
-      <c r="H22" s="31">
-        <v>3</v>
-      </c>
-      <c r="I22" s="31">
-        <v>3</v>
-      </c>
-      <c r="J22" s="31">
-        <v>4</v>
-      </c>
-      <c r="K22" s="31">
-        <v>5</v>
-      </c>
-      <c r="L22" s="31">
-        <v>4</v>
-      </c>
-      <c r="M22" s="31">
-        <v>4</v>
-      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
@@ -2171,21 +2226,41 @@
     <row r="23" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="30">
+        <v>4</v>
+      </c>
+      <c r="D23" s="31">
+        <v>3</v>
+      </c>
+      <c r="E23" s="31">
+        <v>3</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>4</v>
+      </c>
+      <c r="H23" s="31">
+        <v>3</v>
+      </c>
+      <c r="I23" s="31">
+        <v>3</v>
+      </c>
+      <c r="J23" s="31">
+        <v>4</v>
+      </c>
       <c r="K23" s="31">
         <v>5</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="31">
+        <v>4</v>
+      </c>
+      <c r="M23" s="31">
+        <v>4</v>
+      </c>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
@@ -2204,7 +2279,7 @@
     <row r="24" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
@@ -2214,7 +2289,9 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="31">
+        <v>5</v>
+      </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="29"/>
@@ -2234,18 +2311,20 @@
     </row>
     <row r="25" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
@@ -2263,9 +2342,7 @@
     </row>
     <row r="26" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="29" t="s">
-        <v>35</v>
-      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
@@ -2295,7 +2372,7 @@
     <row r="27" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="29" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="42"/>
@@ -2326,7 +2403,7 @@
     <row r="28" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="42"/>
@@ -2357,7 +2434,7 @@
     <row r="29" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="42"/>
@@ -2387,8 +2464,8 @@
     </row>
     <row r="30" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="48" t="s">
-        <v>91</v>
+      <c r="B30" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="42"/>
@@ -2418,7 +2495,9 @@
     </row>
     <row r="31" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="48" t="s">
+        <v>104</v>
+      </c>
       <c r="C31" s="29"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
@@ -2447,7 +2526,9 @@
     </row>
     <row r="32" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="C32" s="29"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -9782,34 +9863,34 @@
       <c r="Z284" s="29"/>
       <c r="AA284" s="29"/>
     </row>
-    <row r="285" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
-      <c r="N285" s="1"/>
-      <c r="O285" s="1"/>
-      <c r="P285" s="1"/>
-      <c r="Q285" s="1"/>
-      <c r="R285" s="1"/>
-      <c r="S285" s="1"/>
-      <c r="T285" s="1"/>
-      <c r="U285" s="1"/>
-      <c r="V285" s="1"/>
-      <c r="W285" s="1"/>
-      <c r="X285" s="1"/>
-      <c r="Y285" s="1"/>
-      <c r="Z285" s="1"/>
-      <c r="AA285" s="1"/>
+    <row r="285" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A285" s="29"/>
+      <c r="B285" s="29"/>
+      <c r="C285" s="29"/>
+      <c r="D285" s="42"/>
+      <c r="E285" s="42"/>
+      <c r="F285" s="29"/>
+      <c r="G285" s="29"/>
+      <c r="H285" s="29"/>
+      <c r="I285" s="29"/>
+      <c r="J285" s="29"/>
+      <c r="K285" s="29"/>
+      <c r="L285" s="29"/>
+      <c r="M285" s="29"/>
+      <c r="N285" s="29"/>
+      <c r="O285" s="29"/>
+      <c r="P285" s="29"/>
+      <c r="Q285" s="29"/>
+      <c r="R285" s="29"/>
+      <c r="S285" s="29"/>
+      <c r="T285" s="29"/>
+      <c r="U285" s="29"/>
+      <c r="V285" s="29"/>
+      <c r="W285" s="29"/>
+      <c r="X285" s="29"/>
+      <c r="Y285" s="29"/>
+      <c r="Z285" s="29"/>
+      <c r="AA285" s="29"/>
     </row>
     <row r="286" spans="1:27" ht="16.5" customHeight="1">
       <c r="A286" s="1"/>
@@ -30575,11 +30656,40 @@
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
     </row>
+    <row r="1002" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+      <c r="AA1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/msff/xls/job_satisfaction_predictor{recoll.xlsx
+++ b/msff/xls/job_satisfaction_predictor{recoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D02C5F-FE86-439E-ACE5-5B9B0E28B283}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C9FD9-C16D-4823-AC07-785B5236F1E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>GS</t>
   </si>
@@ -145,17 +145,10 @@
     <t>Macq</t>
   </si>
   <si>
-    <t>traction with IV</t>
-  </si>
-  <si>
     <t>distraction: kids,MSFM,home maintenance.. affecting xx/blogging</t>
   </si>
   <si>
     <t>mvea</t>
-  </si>
-  <si>
-    <t>1) respect/appraisal by boss
-#relative2team #damaged good = 1, but never happens to contractors</t>
   </si>
   <si>
     <t>5→2</t>
@@ -165,9 +158,6 @@
   </si>
   <si>
     <t>3 #Roland</t>
-  </si>
-  <si>
-    <t>5→1</t>
   </si>
   <si>
     <t>mkt depth # =}job security</t>
@@ -395,6 +385,13 @@
   <si>
     <t>1 [f] #Sundip</t>
   </si>
+  <si>
+    <t>traction with IV ]  spare time</t>
+  </si>
+  <si>
+    <t>1) respect/appraisal by boss
+#relative2team #damaged goods = 1, but never happens to contractors</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -635,11 +632,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,19 +775,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,7 +1140,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17:F18"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1138,10 +1167,10 @@
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>0</v>
@@ -1188,7 +1217,7 @@
     <row r="2" spans="1:27" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5">
         <v>9</v>
@@ -1197,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
@@ -1241,40 +1270,40 @@
     <row r="3" spans="1:27" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4">
         <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" s="4">
         <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
@@ -1307,10 +1336,10 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1328,34 +1357,34 @@
     <row r="5" spans="1:27" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1364,10 +1393,10 @@
         <v>9</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1385,10 +1414,10 @@
     <row r="6" spans="1:27" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1412,19 +1441,19 @@
         <v>2</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" s="10">
         <v>5</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1442,7 +1471,7 @@
     <row r="7" spans="1:27" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="26">
         <v>2</v>
@@ -1472,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7" s="6">
         <v>4</v>
@@ -1495,20 +1524,20 @@
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -1517,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M8" s="6">
         <v>5</v>
@@ -1582,10 +1611,10 @@
         <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1603,7 +1632,7 @@
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -1639,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1660,7 +1689,7 @@
     <row r="11" spans="1:27" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -1669,13 +1698,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4">
         <v>3</v>
@@ -1684,22 +1713,22 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="4">
         <v>4</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11" s="4">
         <v>4</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1717,13 +1746,13 @@
     <row r="12" spans="1:27" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="19">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1747,10 +1776,10 @@
         <v>24</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1770,22 +1799,22 @@
     <row r="13" spans="1:27" ht="33">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -1823,40 +1852,40 @@
     <row r="14" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="L14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>81</v>
-      </c>
       <c r="M14" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
@@ -1888,10 +1917,10 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1911,7 +1940,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1921,10 +1950,10 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1942,22 +1971,22 @@
     <row r="17" spans="1:27" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="28">
         <v>3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="56">
         <v>2</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="58" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>22</v>
@@ -1969,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="4">
         <v>5</v>
@@ -1978,10 +2007,10 @@
         <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1999,19 +2028,21 @@
     <row r="18" spans="1:27" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="57">
+        <v>2</v>
+      </c>
+      <c r="E18" s="62">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="13">
         <v>1</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
@@ -2021,10 +2052,10 @@
         <v>4</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2044,7 +2075,7 @@
     <row r="19" spans="1:27" s="32" customFormat="1" ht="33">
       <c r="A19" s="29"/>
       <c r="B19" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>26</v>
@@ -2052,7 +2083,7 @@
       <c r="D19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="60" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -2097,10 +2128,10 @@
     <row r="20" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
-      <c r="C20" s="35">
-        <v>1</v>
+      <c r="C20" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="36">
         <v>2</v>
@@ -2150,7 +2181,7 @@
     <row r="21" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="38">
         <v>5</v>
@@ -2175,10 +2206,10 @@
       <c r="K21" s="40">
         <v>4</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="58"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -2226,7 +2257,7 @@
     <row r="23" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="30">
         <v>4</v>
@@ -2372,7 +2403,7 @@
     <row r="27" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="42"/>
@@ -2403,7 +2434,7 @@
     <row r="28" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="42"/>
@@ -2434,7 +2465,7 @@
     <row r="29" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="42"/>
@@ -2465,7 +2496,7 @@
     <row r="30" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="42"/>
@@ -2496,7 +2527,7 @@
     <row r="31" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="42"/>
@@ -2527,7 +2558,7 @@
     <row r="32" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="42"/>
@@ -30686,9 +30717,8 @@
       <c r="AA1002" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="L21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/msff/xls/job_satisfaction_predictor{recoll.xlsx
+++ b/msff/xls/job_satisfaction_predictor{recoll.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C9FD9-C16D-4823-AC07-785B5236F1E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>GS</t>
   </si>
@@ -300,9 +299,6 @@
     <t xml:space="preserve">c </t>
   </si>
   <si>
-    <t>.. Team calibre #mtv;localSys..</t>
-  </si>
-  <si>
     <t>positive parts out-numbered 1:10</t>
   </si>
   <si>
@@ -392,11 +388,17 @@
     <t>1) respect/appraisal by boss
 #relative2team #damaged goods = 1, but never happens to contractors</t>
   </si>
+  <si>
+    <t>.. Team calibre #reasonable mtv;localSys..</t>
+  </si>
+  <si>
+    <t>1 #Sanjay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -775,22 +777,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -798,6 +790,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,23 +893,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -943,23 +928,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1135,12 +1103,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1339,7 +1307,7 @@
         <v>61</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1357,10 +1325,10 @@
     <row r="5" spans="1:27" ht="49.5">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1369,13 +1337,13 @@
         <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>37</v>
@@ -1384,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1417,7 +1385,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1471,7 +1439,7 @@
     <row r="7" spans="1:27" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C7" s="26">
         <v>2</v>
@@ -1482,8 +1450,8 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
+      <c r="F7" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1524,20 +1492,22 @@
     <row r="8" spans="1:27" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>5</v>
+      </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -1546,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="6">
         <v>5</v>
@@ -1632,7 +1602,7 @@
     <row r="10" spans="1:27" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -1746,13 +1716,13 @@
     <row r="12" spans="1:27" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="19">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1799,22 +1769,22 @@
     <row r="13" spans="1:27" ht="33">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -1855,7 +1825,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>76</v>
@@ -1971,18 +1941,18 @@
     <row r="17" spans="1:27" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="28">
         <v>3</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="54">
         <v>2</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="59" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -2030,14 +2000,16 @@
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="57">
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="55">
         <v>2</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="58">
         <v>4</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="13">
         <v>1</v>
       </c>
@@ -2083,7 +2055,7 @@
       <c r="D19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -2128,7 +2100,7 @@
     <row r="20" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>70</v>
@@ -2187,29 +2159,33 @@
         <v>5</v>
       </c>
       <c r="D21" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="40">
         <v>1</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40">
+      <c r="F21" s="41">
         <v>3</v>
       </c>
+      <c r="G21" s="40">
+        <v>2</v>
+      </c>
       <c r="H21" s="40">
+        <v>3</v>
+      </c>
+      <c r="I21" s="40">
         <v>4</v>
       </c>
-      <c r="I21" s="40">
-        <v>5</v>
+      <c r="J21" s="41">
+        <v>3</v>
       </c>
-      <c r="J21" s="41"/>
       <c r="K21" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
@@ -2403,7 +2379,7 @@
     <row r="27" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="42"/>
@@ -2434,7 +2410,7 @@
     <row r="28" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="42"/>
@@ -2465,7 +2441,7 @@
     <row r="29" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="42"/>
@@ -2496,7 +2472,7 @@
     <row r="30" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="42"/>
@@ -2527,7 +2503,7 @@
     <row r="31" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="42"/>
@@ -2558,7 +2534,7 @@
     <row r="32" spans="1:27" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="42"/>
